--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -298,16 +298,16 @@
     <t>artistas_seguidos</t>
   </si>
   <si>
-    <t>reproduçao</t>
+    <t>reproducao</t>
+  </si>
+  <si>
+    <t>cancoes_id</t>
   </si>
   <si>
     <t>albuns</t>
   </si>
   <si>
     <t>artista_id</t>
-  </si>
-  <si>
-    <t>cancoes_id</t>
   </si>
   <si>
     <t xml:space="preserve">BREAK MY SOUL</t>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,6 +508,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -13383,7 +13386,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -13850,7 +13853,7 @@
       <c r="G37" s="22"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="10"/>
@@ -13862,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>4</v>
@@ -13876,7 +13879,7 @@
       <c r="C40" s="10">
         <v>8</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="26">
         <v>44620.448553240742</v>
       </c>
       <c r="G40" s="22"/>
@@ -13888,7 +13891,7 @@
       <c r="C41" s="10">
         <v>2</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="26">
         <v>43953.229571759257</v>
       </c>
       <c r="G41" s="22"/>
@@ -13900,7 +13903,7 @@
       <c r="C42" s="10">
         <v>10</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="26">
         <v>43896.473993055559</v>
       </c>
     </row>
@@ -13911,7 +13914,7 @@
       <c r="C43" s="10">
         <v>10</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="26">
         <v>44778.337002314816</v>
       </c>
     </row>
@@ -13922,7 +13925,7 @@
       <c r="C44" s="10">
         <v>7</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="26">
         <v>43832.319826388892</v>
       </c>
     </row>
@@ -13933,7 +13936,7 @@
       <c r="C45" s="10">
         <v>10</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="26">
         <v>44148.705011574071</v>
       </c>
     </row>
@@ -13944,7 +13947,7 @@
       <c r="C46" s="10">
         <v>2</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="26">
         <v>44170.776736111111</v>
       </c>
     </row>
@@ -13955,7 +13958,7 @@
       <c r="C47" s="10">
         <v>8</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="26">
         <v>44423.71539351852</v>
       </c>
     </row>
@@ -13966,7 +13969,7 @@
       <c r="C48" s="10">
         <v>8</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="26">
         <v>44570.072604166664</v>
       </c>
     </row>
@@ -13977,7 +13980,7 @@
       <c r="C49" s="10">
         <v>5</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="26">
         <v>44049.641469907408</v>
       </c>
     </row>
@@ -13988,7 +13991,7 @@
       <c r="C50" s="10">
         <v>7</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="26">
         <v>42759.021724537037</v>
       </c>
     </row>
@@ -13999,7 +14002,7 @@
       <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="26">
         <v>43020.524537037039</v>
       </c>
     </row>
@@ -14010,7 +14013,7 @@
       <c r="C52" s="10">
         <v>4</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="27">
         <v>40892.938067129631</v>
       </c>
     </row>
@@ -14021,7 +14024,7 @@
       <c r="C53" s="10">
         <v>4</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="27">
         <v>40985.622696759259</v>
       </c>
     </row>
@@ -14032,7 +14035,7 @@
       <c r="C54" s="10">
         <v>9</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="27">
         <v>44616.884976851848</v>
       </c>
     </row>
@@ -14043,7 +14046,7 @@
       <c r="C55" s="10">
         <v>3</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="27">
         <v>42351.354421296295</v>
       </c>
     </row>
@@ -14053,7 +14056,7 @@
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -14067,7 +14070,7 @@
         <v>62</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>66</v>
@@ -14193,7 +14196,7 @@
     </row>
     <row r="69" ht="14.25">
       <c r="B69" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>63</v>
@@ -14262,7 +14265,7 @@
     </row>
     <row r="79" ht="14.25">
       <c r="B79" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>64</v>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,9 +508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -13386,7 +13383,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -13853,7 +13850,7 @@
       <c r="G37" s="22"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C38" s="10"/>
@@ -13879,7 +13876,7 @@
       <c r="C40" s="10">
         <v>8</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="25">
         <v>44620.448553240742</v>
       </c>
       <c r="G40" s="22"/>
@@ -13891,7 +13888,7 @@
       <c r="C41" s="10">
         <v>2</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="25">
         <v>43953.229571759257</v>
       </c>
       <c r="G41" s="22"/>
@@ -13903,7 +13900,7 @@
       <c r="C42" s="10">
         <v>10</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="25">
         <v>43896.473993055559</v>
       </c>
     </row>
@@ -13914,7 +13911,7 @@
       <c r="C43" s="10">
         <v>10</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="25">
         <v>44778.337002314816</v>
       </c>
     </row>
@@ -13925,7 +13922,7 @@
       <c r="C44" s="10">
         <v>7</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="25">
         <v>43832.319826388892</v>
       </c>
     </row>
@@ -13936,7 +13933,7 @@
       <c r="C45" s="10">
         <v>10</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="25">
         <v>44148.705011574071</v>
       </c>
     </row>
@@ -13947,7 +13944,7 @@
       <c r="C46" s="10">
         <v>2</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="25">
         <v>44170.776736111111</v>
       </c>
     </row>
@@ -13958,7 +13955,7 @@
       <c r="C47" s="10">
         <v>8</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="25">
         <v>44423.71539351852</v>
       </c>
     </row>
@@ -13969,7 +13966,7 @@
       <c r="C48" s="10">
         <v>8</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="25">
         <v>44570.072604166664</v>
       </c>
     </row>
@@ -13980,7 +13977,7 @@
       <c r="C49" s="10">
         <v>5</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="25">
         <v>44049.641469907408</v>
       </c>
     </row>
@@ -13991,7 +13988,7 @@
       <c r="C50" s="10">
         <v>7</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="25">
         <v>42759.021724537037</v>
       </c>
     </row>
@@ -14002,7 +13999,7 @@
       <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="25">
         <v>43020.524537037039</v>
       </c>
     </row>
@@ -14013,7 +14010,7 @@
       <c r="C52" s="10">
         <v>4</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="26">
         <v>40892.938067129631</v>
       </c>
     </row>
@@ -14024,7 +14021,7 @@
       <c r="C53" s="10">
         <v>4</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="26">
         <v>40985.622696759259</v>
       </c>
     </row>
@@ -14035,7 +14032,7 @@
       <c r="C54" s="10">
         <v>9</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="26">
         <v>44616.884976851848</v>
       </c>
     </row>
@@ -14046,7 +14043,7 @@
       <c r="C55" s="10">
         <v>3</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="26">
         <v>42351.354421296295</v>
       </c>
     </row>
